--- a/db-Tabelle.xlsx
+++ b/db-Tabelle.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A43CB3D7-1D6E-4A80-8F63-49812EEBF9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB5FF3-C728-4DE0-AFDE-921EAECAEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC65F1B6-3902-40CB-B1FB-010DD7AE50F3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC65F1B6-3902-40CB-B1FB-010DD7AE50F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Student_ID</t>
   </si>
@@ -47,9 +70,6 @@
     <t>Nachname</t>
   </si>
   <si>
-    <t>Studiengang</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -74,15 +94,6 @@
     <t>Studenten</t>
   </si>
   <si>
-    <t>Studiengänge</t>
-  </si>
-  <si>
-    <t>Wirtschaftsinformatik</t>
-  </si>
-  <si>
-    <t>Maschinenbau</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -96,6 +107,51 @@
   </si>
   <si>
     <t>Tabelle</t>
+  </si>
+  <si>
+    <t>Mitarbeiter_ID</t>
+  </si>
+  <si>
+    <t>Mitarbeiter (gekürzt)</t>
+  </si>
+  <si>
+    <t>Mandant_ID</t>
+  </si>
+  <si>
+    <t>Personalnummer</t>
+  </si>
+  <si>
+    <t>M100001</t>
+  </si>
+  <si>
+    <t>Steuerklassen</t>
+  </si>
+  <si>
+    <t>Steuerklasse ID</t>
+  </si>
+  <si>
+    <t>Steuerklasse</t>
+  </si>
+  <si>
+    <t>in_Steuerklasse</t>
+  </si>
+  <si>
+    <t>Datum_Von</t>
+  </si>
+  <si>
+    <t>Datum_Bis</t>
+  </si>
+  <si>
+    <t>Steuerklasse_ID</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>9999-12-31</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
   </si>
 </sst>
 </file>
@@ -151,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -331,24 +387,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -367,24 +565,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -735,6 +954,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323810</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78E8887-FC17-165C-C83F-810F5FC4CE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="2190750"/>
+          <a:ext cx="323810" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1032,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696B865-BE72-47FA-BAFC-195CDE3952B1}">
-  <dimension ref="D2:M23"/>
+  <dimension ref="D2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,185 +1375,272 @@
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>6</v>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F8" s="21">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="I8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="16">
         <v>2</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="I9" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>3</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="I10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33E8097-1293-4E19-A2FB-26F5A4F22568}">
+  <dimension ref="C11:Q15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="I12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="O12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>18</v>
       </c>
+      <c r="E13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="L19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="3"/>
+    <row r="14" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="36">
+        <v>1</v>
+      </c>
+      <c r="P14" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29" t="s">
+    <row r="15" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="27">
         <v>1</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="J15" s="28">
         <v>2</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="31">
+      <c r="K15" s="28">
         <v>1</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="L15" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2</v>
+      </c>
+      <c r="P15" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
         <v>4</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="33">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="31">
-        <v>2</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="33">
-        <v>1</v>
-      </c>
-      <c r="L22" s="9">
-        <v>2</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="34">
-        <v>3</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="36">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="I12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
